--- a/Lectures and Assignment 3/problem2.xlsx
+++ b/Lectures and Assignment 3/problem2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-I\Lectures and Assignment 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957C0EA6-7D2C-4B75-A969-2C6055A0D34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBE5331-389B-4210-A4D0-AFF1B2015017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Destination (Warehouse)</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Albert Lea</t>
-  </si>
-  <si>
-    <t>=</t>
   </si>
   <si>
     <t>Distance (km)</t>
@@ -431,11 +428,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>125186</xdr:colOff>
+      <xdr:colOff>146207</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>39461</xdr:rowOff>
+      <xdr:rowOff>7930</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9539288" cy="5889369"/>
+    <xdr:ext cx="9539288" cy="11612569"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -451,8 +448,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="125186" y="370329"/>
-              <a:ext cx="9539288" cy="5889369"/>
+              <a:off x="146207" y="335590"/>
+              <a:ext cx="9539288" cy="11612569"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -482,7 +479,7 @@
           </xdr:style>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
@@ -1272,14 +1269,14 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>a) Mathematically formulate an NLP model to minimize transportation costs so that demands are satisfied and capacities are not exceeded. Use the notation </a:t>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (a): Mathematically formulate an NLP model to minimize transportation costs so that demands are satisfied and capacities are not exceeded. Use the notation </a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -1287,6 +1284,504 @@
                     <m:sSubPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖𝑗</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,  </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑖</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>∈</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:begChr m:val="{"/>
+                      <m:endChr m:val="}"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1,…,3</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>, </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>∈</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:begChr m:val="{"/>
+                      <m:endChr m:val="}"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1,…,4</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, for the decision variables representing the transportation volumes (in number of trucks). For the fixed parameters use, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>in addition to </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑎</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> and </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑏</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, the following symbols: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖𝑗</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> for distances, </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑐</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> for cannery capacities and </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑤</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑗</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> for warehouse demands. (2p)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Parameters:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
@@ -1299,7 +1794,7 @@
                     </m:sSubPr>
                     <m:e>
                       <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
@@ -1308,12 +1803,12 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝑥</m:t>
+                        <m:t>𝑑</m:t>
                       </m:r>
                     </m:e>
                     <m:sub>
                       <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
@@ -1329,16 +1824,1896 @@
                 </m:oMath>
               </a14:m>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>,  </a:t>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Distance from Cannery </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> to Warehouse </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>j</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (in kilometers)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑐</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>​: Capacity of Cannery </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (in number of trucks)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑤</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑗</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Demand at Warehouse </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>j</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (in number of trucks)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>a</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>b</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Coefficients for the regression model determining transportation cost per km per truck</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Decision Variables:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖𝑗</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Number of trucks transporting peas from Cannery </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> to Warehouse </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>j</a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Objective Function:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Minimize the total transportation cost, which is a function of the number of trucks on each route and the distances:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>min</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>z</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>= </m:t>
+                  </m:r>
+                  <m:nary>
+                    <m:naryPr>
+                      <m:chr m:val="∑"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:naryPr>
+                    <m:sub>
+                      <m:r>
+                        <m:rPr>
+                          <m:brk m:alnAt="23"/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>=1</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>3</m:t>
+                      </m:r>
+                    </m:sup>
+                    <m:e>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑗</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>=4</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>4</m:t>
+                          </m:r>
+                        </m:sup>
+                        <m:e>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:d>
+                                <m:dPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:dPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑥</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑖𝑗</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>+</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑏</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:d>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑖𝑗</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                        </m:e>
+                      </m:nary>
+                    </m:e>
+                  </m:nary>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖𝑗</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:nary>
+                    <m:naryPr>
+                      <m:chr m:val="∑"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:naryPr>
+                    <m:sub>
+                      <m:r>
+                        <m:rPr>
+                          <m:brk m:alnAt="23"/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>=1</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>3</m:t>
+                      </m:r>
+                    </m:sup>
+                    <m:e>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑗</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>=4</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>4</m:t>
+                          </m:r>
+                        </m:sup>
+                        <m:e>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:d>
+                                <m:dPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:dPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>0.002</m:t>
+                                  </m:r>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑥</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑖𝑗</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>+0.3465</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:d>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑖𝑗</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                        </m:e>
+                      </m:nary>
+                    </m:e>
+                  </m:nary>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖𝑗</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Constraints:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Demand Satisfaction</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: The total number of trucks sent to each warehouse must meet its demand.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:nary>
+                    <m:naryPr>
+                      <m:chr m:val="∑"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:naryPr>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>=4</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>3</m:t>
+                      </m:r>
+                    </m:sup>
+                    <m:e>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑖𝑗</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>=</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑤</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑗</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:e>
+                  </m:nary>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>∈</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:begChr m:val="{"/>
+                      <m:endChr m:val="}"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1, 2, 3, 4</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Capacity Constraints</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: The number of trucks sent from each cannery must not exceed its capacity.</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:nary>
+                    <m:naryPr>
+                      <m:chr m:val="∑"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:naryPr>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>=1</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>4</m:t>
+                      </m:r>
+                    </m:sup>
+                    <m:e>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑖𝑗</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>≤</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑐</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑗</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                    </m:e>
+                  </m:nary>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>, </a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -1393,7 +3768,234 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>1,…,3</m:t>
+                        <m:t>1, 2, 3</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Nonnegativity:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖𝑗</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≥0</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, for all </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑖</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>∈</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:begChr m:val="{"/>
+                      <m:endChr m:val="}"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1, 2, 3</m:t>
                       </m:r>
                     </m:e>
                   </m:d>
@@ -1404,7 +4006,7 @@
                       </a:solidFill>
                       <a:effectLst/>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
                     <m:t>, </m:t>
@@ -1416,7 +4018,7 @@
                       </a:solidFill>
                       <a:effectLst/>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
                     <m:t>𝑗</m:t>
@@ -1460,398 +4062,12 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>1,…,4</m:t>
+                        <m:t>1, 2, 3, 4</m:t>
                       </m:r>
                     </m:e>
                   </m:d>
                 </m:oMath>
               </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>, for the decision variables representing the transportation volumes (in number of trucks). For the fixed parameters use, </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>in addition to </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑎</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> and </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑏</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>, the following symbols: </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑑</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖𝑗</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> for distances, </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑐</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> for cannery capacities and </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑤</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑗</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> for warehouse demands. (2p)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:func>
-                    <m:funcPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:funcPr>
-                    <m:fName>
-                      <m:r>
-                        <m:rPr>
-                          <m:sty m:val="p"/>
-                        </m:rPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>min</m:t>
-                      </m:r>
-                    </m:fName>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:srgbClr val="FF0000"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥𝑥𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                  </m:func>
-                </m:oMath>
-              </a14:m>
-              <a:endParaRPr lang="en-US" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -1863,17 +4079,62 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>b) Implement a spreadsheet model (3p) [HINT: With the current distribution plan the transporation costs would be equal to $234137]</a:t>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (b): Implement a spreadsheet model (3p) [HINT: With the current distribution plan the transporation costs would be equal to $234137]</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -1891,14 +4152,14 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>c) Solve the model using "GRG nonlinear"-algorithm with the current plan as a starting solution (i.e. as values in the variable cells when opening solver) . Report the optimal objective function value. (0.5 p)</a:t>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (c): Solve the model using "GRG nonlinear"-algorithm with the current plan as a starting solution (i.e. as values in the variable cells when opening solver) . Report the optimal objective function value. (0.5 p)</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -1972,14 +4233,14 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>d) Solve the model using "GRG-nonlinear"-algorithm with a starting solution of all zeros. Report optimal objective function value (0.5 p) [HINT: this might differ from the value in c) but can also be the same]</a:t>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (d): Solve the model using "GRG-nonlinear"-algorithm with a starting solution of all zeros. Report optimal objective function value (0.5 p) [HINT: this might differ from the value in c) but can also be the same]</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2067,8 +4328,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="125186" y="370329"/>
-              <a:ext cx="9539288" cy="5889369"/>
+              <a:off x="146207" y="335590"/>
+              <a:ext cx="9539288" cy="11612569"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2098,7 +4359,7 @@
           </xdr:style>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
@@ -2187,7 +4448,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>The company has started a project that seeks to reduce transportation costs. The current monthly distribution of peas, which meets warehouse demands (𝑤_𝑗</a:t>
+                <a:t>The company has started a project that seeks to reduce transportation costs. The current monthly distribution of peas, which meets warehouse demands (</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
@@ -2199,7 +4460,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>) </a:t>
+                <a:t>𝑤_𝑗) </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
@@ -2211,7 +4472,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>and consumes production capacities of canneries (𝑐_𝑖), is presented in Table 1. </a:t>
+                <a:t>and consumes production capacities of canneries (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑐_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>), is presented in Table 1. </a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2379,19 +4664,19 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>a) Mathematically formulate an NLP model to minimize transportation costs so that demands are satisfied and capacities are not exceeded. Use the notation </a:t>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (a): Mathematically formulate an NLP model to minimize transportation costs so that demands are satisfied and capacities are not exceeded. Use the notation </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2403,7 +4688,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2415,7 +4700,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2427,7 +4712,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2439,7 +4724,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2451,7 +4736,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2463,7 +4748,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2475,7 +4760,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2487,7 +4772,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2499,7 +4784,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2511,7 +4796,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2523,7 +4808,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2535,7 +4820,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2547,7 +4832,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2559,7 +4844,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2571,7 +4856,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2610,53 +4895,314 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here </a:t>
-              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Parameters:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>min⁡𝑥𝑥𝑥</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:endParaRPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Distance from Cannery </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> to Warehouse </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>j</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (in kilometers)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>​: Capacity of Cannery </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (in number of trucks)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑤</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Demand at Warehouse </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>j</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (in number of trucks)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>a</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>b</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Coefficients for the regression model determining transportation cost per km per truck</a:t>
+              </a:r>
             </a:p>
             <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
@@ -2671,17 +5217,112 @@
             </a:p>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>b) Implement a spreadsheet model (3p) [HINT: With the current distribution plan the transporation costs would be equal to $234137]</a:t>
-              </a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Decision Variables:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Number of trucks transporting peas from Cannery </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> to Warehouse </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>j</a:t>
+              </a:r>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
@@ -2696,16 +5337,30 @@
             </a:p>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>c) Solve the model using "GRG nonlinear"-algorithm with the current plan as a starting solution (i.e. as values in the variable cells when opening solver) . Report the optimal objective function value. (0.5 p)</a:t>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Objective Function:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Minimize the total transportation cost, which is a function of the number of trucks on each route and the distances:</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2720,23 +5375,396 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:uLnTx/>
-                  <a:uFillTx/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>min z= ∑_(𝑖=1)^3▒∑_(𝑗=4)^4▒(𝑎𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗+𝑏)𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗=∑_(𝑖=1)^3▒∑_(𝑗=4)^4▒(0.002𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗+0.3465)𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Constraints:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Demand Satisfaction</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: The total number of trucks sent to each warehouse must meet its demand.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -2748,6 +5776,145 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑_(𝑖=4)^3▒〖𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗=𝑤</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑗 〗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑗∈{1, 2, 3, 4}</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -2777,16 +5944,541 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Capacity Constraints</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: The number of trucks sent from each cannery must not exceed its capacity.</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑_(𝑖=1)^4▒〖𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≤</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑗 〗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖∈{1, 2, 3}</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Nonnegativity:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗≥0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, for all </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖∈{1, 2, 3}, 𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∈{1, 2, 3, 4}</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>d) Solve the model using "GRG-nonlinear"-algorithm with a starting solution of all zeros. Report optimal objective function value (0.5 p) [HINT: this might differ from the value in c) but can also be the same]</a:t>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (b): Implement a spreadsheet model (3p) [HINT: With the current distribution plan the transporation costs would be equal to $234137]</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (c): Solve the model using "GRG nonlinear"-algorithm with the current plan as a starting solution (i.e. as values in the variable cells when opening solver) . Report the optimal objective function value. (0.5 p)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Answer here</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (d): Solve the model using "GRG-nonlinear"-algorithm with a starting solution of all zeros. Report optimal objective function value (0.5 p) [HINT: this might differ from the value in c) but can also be the same]</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -4148,9 +7840,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23:W25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4159,11 +7853,12 @@
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="31" max="31" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="80.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4209,105 +7904,189 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.3">
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.3">
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.3">
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="R23" s="3"/>
-    </row>
-    <row r="26" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="23" t="s">
+    <row r="20" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="W20" s="23" t="s">
         <v>14</v>
       </c>
+      <c r="AD20" s="24" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="28" t="s">
-        <v>17</v>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="P21" s="28" t="s">
+        <v>16</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="9" t="s">
+      <c r="Q21" s="29"/>
+      <c r="R21" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="10"/>
+      <c r="W21" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="10"/>
+      <c r="AD21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE21" s="17"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="7" t="s">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="S22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="T22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="U22" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="W22" s="30"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE22" s="20">
+        <v>2E-3</v>
+      </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="26" t="s">
+    <row r="23" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P23" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="8">
+      <c r="R23" s="8">
         <v>75</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="12"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="12"/>
+      <c r="W23" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>1339</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>1481</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>1887</v>
+      </c>
+      <c r="AB23" s="12">
+        <v>2502</v>
+      </c>
+      <c r="AD23" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE23" s="22">
+        <v>0.34649999999999997</v>
+      </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="7" t="s">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="P24" s="26"/>
+      <c r="Q24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="8">
+      <c r="R24" s="8">
         <v>5</v>
       </c>
-      <c r="E30" s="8">
+      <c r="S24" s="8">
         <v>60</v>
       </c>
-      <c r="F30" s="8">
+      <c r="T24" s="8">
         <v>60</v>
       </c>
-      <c r="G30" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>1016</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>1201</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>1991</v>
+      </c>
+      <c r="AB24" s="12">
+        <v>2283</v>
+      </c>
     </row>
-    <row r="31" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="27"/>
-      <c r="C31" s="13" t="s">
+    <row r="25" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P25" s="27"/>
+      <c r="Q25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14">
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14">
         <v>15</v>
       </c>
-      <c r="G31" s="15">
+      <c r="U25" s="15">
         <v>85</v>
       </c>
+      <c r="W25" s="27"/>
+      <c r="X25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>2872</v>
+      </c>
+      <c r="Z25" s="14">
+        <v>1968</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>1120</v>
+      </c>
+      <c r="AB25" s="15">
+        <v>1977</v>
+      </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -4315,7 +8094,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -4323,141 +8102,28 @@
       <c r="F33" s="8"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B35" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B37" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="8">
-        <v>1339</v>
-      </c>
-      <c r="E37" s="8">
-        <v>1481</v>
-      </c>
-      <c r="F37" s="8">
-        <v>1887</v>
-      </c>
-      <c r="G37" s="12">
-        <v>2502</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B38" s="26"/>
-      <c r="C38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="8">
-        <v>1016</v>
-      </c>
-      <c r="E38" s="8">
-        <v>1201</v>
-      </c>
-      <c r="F38" s="8">
-        <v>1991</v>
-      </c>
-      <c r="G38" s="12">
-        <v>2283</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="27"/>
-      <c r="C39" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="14">
-        <v>2872</v>
-      </c>
-      <c r="E39" s="14">
-        <v>1968</v>
-      </c>
-      <c r="F39" s="14">
-        <v>1120</v>
-      </c>
-      <c r="G39" s="15">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="X40" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="41" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B42" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="17"/>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D42" s="25"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B43" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="20">
-        <v>2E-3</v>
-      </c>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D43" s="19"/>
     </row>
-    <row r="44" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="22">
-        <v>0.34649999999999997</v>
-      </c>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B35:C36"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="P21:Q22"/>
+    <mergeCell ref="W21:X22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Lectures and Assignment 3/problem2.xlsx
+++ b/Lectures and Assignment 3/problem2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-I\Lectures and Assignment 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBE5331-389B-4210-A4D0-AFF1B2015017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2E0897-43DA-4CFD-9AC2-3B6B689E16AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,30 +16,32 @@
     <sheet name="Problem 2" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 2'!$R$31:$U$33</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,0001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 2'!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 2'!#REF!</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 2'!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 2'!$R$31:$U$33</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 2'!$R$34:$U$34</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 2'!$V$31:$V$33</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,075"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Problem 2'!$W$42</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,000001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Problem 2'!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 2'!#REF!</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Problem 2'!#REF!</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 2'!$R$36:$U$36</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Problem 2'!$X$31:$X$33</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -47,7 +49,7 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
   <si>
     <t>Destination (Warehouse)</t>
   </si>
@@ -124,12 +126,42 @@
   <si>
     <t>ISM-C1004 - Business Analytics 1 - Assignment 3 (Total 28 points)</t>
   </si>
+  <si>
+    <t>Decision variables xij</t>
+  </si>
+  <si>
+    <t>Demand wi</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>total transportation cost</t>
+  </si>
+  <si>
+    <t>Costs of each route</t>
+  </si>
+  <si>
+    <t>Constraint # Demand</t>
+  </si>
+  <si>
+    <t>Constraint # Capacity</t>
+  </si>
+  <si>
+    <t>capacity ci</t>
+  </si>
+  <si>
+    <t>Answer part (b)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +239,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +264,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -406,6 +476,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,8 +559,8 @@
       <xdr:rowOff>7930</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9539288" cy="11612569"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3099,7 +3225,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Demand Satisfaction</a:t>
+                <a:t>Warehouse demand satisfaction</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
@@ -3211,7 +3337,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>=4</m:t>
+                        <m:t>=1</m:t>
                       </m:r>
                     </m:sub>
                     <m:sup>
@@ -3701,7 +3827,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>𝑗</m:t>
+                            <m:t>𝑖</m:t>
                           </m:r>
                         </m:sub>
                       </m:sSub>
@@ -3825,7 +3951,7 @@
                   </a:solidFill>
                   <a:effectLst/>
                 </a:rPr>
-                <a:t>Nonnegativity:</a:t>
+                <a:t>Nonnegativity and integer constraints:</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -4152,14 +4278,14 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Task (c): Solve the model using "GRG nonlinear"-algorithm with the current plan as a starting solution (i.e. as values in the variable cells when opening solver) . Report the optimal objective function value. (0.5 p)</a:t>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The spreadhseet model has been implemented to the right</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -4175,12 +4301,37 @@
             </a:p>
             <a:p>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (c): Solve the model using "GRG nonlinear"-algorithm with the current plan as a starting solution (i.e. as values in the variable cells when opening solver) . Report the optimal objective function value. (0.5 p)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
                 <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
                   <a:ln>
                     <a:noFill/>
                   </a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:uLnTx/>
@@ -4189,9 +4340,43 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:t>The optimal objective function value is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>188177.4 euros</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, and the trucks were repored in answer part (b) table to the right</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -4272,49 +4457,50 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The optimal objective function value is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>188177.4 euros</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, and the trucks were repored in answer part (c) table to the right. Answer is still the same to part (b)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
                 <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -5732,7 +5918,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Demand Satisfaction</a:t>
+                <a:t>Warehouse demand satisfaction</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
@@ -5814,7 +6000,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∑_(𝑖=4)^3▒〖𝑥</a:t>
+                <a:t>∑_(𝑖=1)^3▒〖𝑥</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -6117,7 +6303,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑗 〗</a:t>
+                <a:t>𝑖 〗</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US">
@@ -6188,7 +6374,7 @@
                   </a:solidFill>
                   <a:effectLst/>
                 </a:rPr>
-                <a:t>Nonnegativity:</a:t>
+                <a:t>Nonnegativity and integer constraints:</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -6390,14 +6576,14 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Task (c): Solve the model using "GRG nonlinear"-algorithm with the current plan as a starting solution (i.e. as values in the variable cells when opening solver) . Report the optimal objective function value. (0.5 p)</a:t>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The spreadhseet model has been implemented to the right</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -6413,12 +6599,37 @@
             </a:p>
             <a:p>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task (c): Solve the model using "GRG nonlinear"-algorithm with the current plan as a starting solution (i.e. as values in the variable cells when opening solver) . Report the optimal objective function value. (0.5 p)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
                 <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
                   <a:ln>
                     <a:noFill/>
                   </a:ln>
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:uLnTx/>
@@ -6427,9 +6638,43 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:t>The optimal objective function value is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>188177.4 euros</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, and the trucks were repored in answer part (b) table to the right</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6510,43 +6755,44 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Answer here</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The optimal objective function value is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>188177.4 euros</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>, and the trucks were repored in answer part (c) table to the right. Answer is still the same to part (b)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
                 <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:endParaRPr>
             </a:p>
           </xdr:txBody>
@@ -7840,10 +8086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE44"/>
+  <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23:W25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7853,6 +8099,9 @@
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="18.77734375" customWidth="1"/>
     <col min="31" max="31" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7996,25 +8245,31 @@
       <c r="R23" s="8">
         <v>75</v>
       </c>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="12"/>
+      <c r="S23" s="8">
+        <v>0</v>
+      </c>
+      <c r="T23" s="8">
+        <v>0</v>
+      </c>
+      <c r="U23" s="12">
+        <v>0</v>
+      </c>
       <c r="W23" s="26" t="s">
         <v>5</v>
       </c>
       <c r="X23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Y23" s="8">
+      <c r="Y23" s="39">
         <v>1339</v>
       </c>
-      <c r="Z23" s="8">
+      <c r="Z23" s="39">
         <v>1481</v>
       </c>
-      <c r="AA23" s="8">
+      <c r="AA23" s="39">
         <v>1887</v>
       </c>
-      <c r="AB23" s="12">
+      <c r="AB23" s="40">
         <v>2502</v>
       </c>
       <c r="AD23" s="21" t="s">
@@ -8038,21 +8293,23 @@
       <c r="T24" s="8">
         <v>60</v>
       </c>
-      <c r="U24" s="12"/>
+      <c r="U24" s="12">
+        <v>0</v>
+      </c>
       <c r="W24" s="26"/>
       <c r="X24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y24" s="8">
+      <c r="Y24" s="39">
         <v>1016</v>
       </c>
-      <c r="Z24" s="8">
+      <c r="Z24" s="39">
         <v>1201</v>
       </c>
-      <c r="AA24" s="8">
+      <c r="AA24" s="39">
         <v>1991</v>
       </c>
-      <c r="AB24" s="12">
+      <c r="AB24" s="40">
         <v>2283</v>
       </c>
     </row>
@@ -8061,8 +8318,12 @@
       <c r="Q25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
+      <c r="R25" s="14">
+        <v>0</v>
+      </c>
+      <c r="S25" s="14">
+        <v>0</v>
+      </c>
       <c r="T25" s="14">
         <v>15</v>
       </c>
@@ -8073,17 +8334,85 @@
       <c r="X25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Y25" s="14">
+      <c r="Y25" s="41">
         <v>2872</v>
       </c>
-      <c r="Z25" s="14">
+      <c r="Z25" s="41">
         <v>1968</v>
       </c>
-      <c r="AA25" s="14">
+      <c r="AA25" s="41">
         <v>1120</v>
       </c>
-      <c r="AB25" s="15">
+      <c r="AB25" s="42">
         <v>1977</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P28" s="23"/>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="P29" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="10"/>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="P30" s="30"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="V30" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="W30" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="X30" s="49"/>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="P31" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="32">
+        <v>25</v>
+      </c>
+      <c r="S31" s="32">
+        <v>20</v>
+      </c>
+      <c r="T31" s="32">
+        <v>11</v>
+      </c>
+      <c r="U31" s="33">
+        <v>19</v>
+      </c>
+      <c r="V31" s="45">
+        <f>SUM(R31:U31)</f>
+        <v>75</v>
+      </c>
+      <c r="W31" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="X31" s="46">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.3">
@@ -8093,37 +8422,444 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="6"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R32" s="32">
+        <v>55</v>
+      </c>
+      <c r="S32" s="32">
+        <v>40</v>
+      </c>
+      <c r="T32" s="32">
+        <v>3</v>
+      </c>
+      <c r="U32" s="33">
+        <v>27</v>
+      </c>
+      <c r="V32" s="45">
+        <f t="shared" ref="V32:V33" si="0">SUM(R32:U32)</f>
+        <v>125</v>
+      </c>
+      <c r="W32" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="X32" s="46">
+        <v>125</v>
+      </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="6"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="34">
+        <v>0</v>
+      </c>
+      <c r="S33" s="34">
+        <v>0</v>
+      </c>
+      <c r="T33" s="34">
+        <v>61</v>
+      </c>
+      <c r="U33" s="35">
+        <v>39</v>
+      </c>
+      <c r="V33" s="45">
+        <v>100</v>
+      </c>
+      <c r="W33" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="X33" s="46">
+        <v>100</v>
+      </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="R34" s="45">
+        <f>SUM(R31:R33)</f>
+        <v>80</v>
+      </c>
+      <c r="S34" s="45">
+        <f t="shared" ref="S34:T34" si="1">SUM(S31:S33)</f>
+        <v>60</v>
+      </c>
+      <c r="T34" s="45">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="U34" s="45">
+        <f>SUM(U31:U33)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="P35" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="Q36" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="R36" s="38">
+        <v>80</v>
+      </c>
+      <c r="S36" s="38">
+        <v>60</v>
+      </c>
+      <c r="T36" s="38">
+        <v>75</v>
+      </c>
+      <c r="U36" s="38">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="P38" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="10"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="P39" s="30"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
+      <c r="P40" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R40" s="44">
+        <f>($AE$22*R31+$AE$23)*R31*Y23</f>
+        <v>13272.8375</v>
+      </c>
+      <c r="S40" s="44">
+        <f t="shared" ref="S40:U42" si="2">($AE$22*S31+$AE$23)*S31*Z23</f>
+        <v>11448.129999999997</v>
+      </c>
+      <c r="T40" s="44">
+        <f t="shared" si="2"/>
+        <v>7648.9544999999989</v>
+      </c>
+      <c r="U40" s="44">
+        <f>($AE$22*U31+$AE$23)*U31*AB23</f>
+        <v>18278.360999999997</v>
+      </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="P41" s="26"/>
+      <c r="Q41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R41" s="44">
+        <f t="shared" ref="R41:R42" si="3">($AE$22*R32+$AE$23)*R32*Y24</f>
+        <v>25509.219999999998</v>
+      </c>
+      <c r="S41" s="44">
+        <f t="shared" si="2"/>
+        <v>20489.059999999998</v>
+      </c>
+      <c r="T41" s="44">
+        <f t="shared" si="2"/>
+        <v>2105.4824999999996</v>
+      </c>
+      <c r="U41" s="44">
+        <f>($AE$22*U32+$AE$23)*U32*AB24</f>
+        <v>24687.220499999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D42" s="25"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="44">
+        <f t="shared" si="2"/>
+        <v>32007.919999999998</v>
+      </c>
+      <c r="U42" s="44">
+        <f t="shared" si="2"/>
+        <v>32730.223499999996</v>
+      </c>
+      <c r="W42" s="50">
+        <f>SUM(R40:U42)</f>
+        <v>188177.40949999998</v>
+      </c>
+      <c r="X42" s="51" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D43" s="19"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D44" s="19"/>
     </row>
+    <row r="46" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="P47" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="10"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="P48" s="30"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P49" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R49" s="32">
+        <v>25</v>
+      </c>
+      <c r="S49" s="32">
+        <v>20</v>
+      </c>
+      <c r="T49" s="32">
+        <v>11</v>
+      </c>
+      <c r="U49" s="33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P50" s="26"/>
+      <c r="Q50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R50" s="32">
+        <v>55</v>
+      </c>
+      <c r="S50" s="32">
+        <v>40</v>
+      </c>
+      <c r="T50" s="32">
+        <v>3</v>
+      </c>
+      <c r="U50" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="16:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P51" s="27"/>
+      <c r="Q51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R51" s="34">
+        <v>0</v>
+      </c>
+      <c r="S51" s="34">
+        <v>0</v>
+      </c>
+      <c r="T51" s="34">
+        <v>61</v>
+      </c>
+      <c r="U51" s="35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="S52" s="43">
+        <v>188177.40949999998</v>
+      </c>
+      <c r="T52" s="51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="16:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="16:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P55" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="10"/>
+    </row>
+    <row r="56" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P56" s="30"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U56" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="16:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P57" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R57" s="32">
+        <v>25</v>
+      </c>
+      <c r="S57" s="32">
+        <v>20</v>
+      </c>
+      <c r="T57" s="32">
+        <v>11</v>
+      </c>
+      <c r="U57" s="33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P58" s="26"/>
+      <c r="Q58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R58" s="32">
+        <v>55</v>
+      </c>
+      <c r="S58" s="32">
+        <v>40</v>
+      </c>
+      <c r="T58" s="32">
+        <v>3</v>
+      </c>
+      <c r="U58" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="16:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P59" s="27"/>
+      <c r="Q59" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="34">
+        <v>0</v>
+      </c>
+      <c r="S59" s="34">
+        <v>0</v>
+      </c>
+      <c r="T59" s="34">
+        <v>61</v>
+      </c>
+      <c r="U59" s="35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="S60" s="43">
+        <v>188177.40949999998</v>
+      </c>
+      <c r="T60" s="51" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="13">
+    <mergeCell ref="P47:Q48"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="P55:Q56"/>
+    <mergeCell ref="P57:P59"/>
+    <mergeCell ref="P31:P33"/>
+    <mergeCell ref="P38:Q39"/>
+    <mergeCell ref="P40:P42"/>
+    <mergeCell ref="P35:Q35"/>
     <mergeCell ref="P23:P25"/>
     <mergeCell ref="W23:W25"/>
     <mergeCell ref="P21:Q22"/>
     <mergeCell ref="W21:X22"/>
+    <mergeCell ref="P29:Q30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
